--- a/test.xlsx
+++ b/test.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Test de la fonction</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -459,7 +459,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>La factualité du texte est estimé à :resCalcul1</t>
+          <t>0.9913442134857178</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,41 +429,9 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Choix du modèle</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>Score</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Test de la fonction</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Factuality</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0.9913442134857178</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,38 @@
           <t>Score</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Moyenne</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Test1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.8414592146873474</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8958436548709869</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.9502280950546265</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Modèle</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Score</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Moyenne</t>
         </is>
       </c>
     </row>
@@ -446,11 +446,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8414592146873474</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>Factuality and Readability</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.8414592146873474 / 2</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.8958436548709869</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +469,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.9502280950546265</t>
+          <t>Factuality and Readability</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.9502280950546265 / 2</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,24 +424,34 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Phrase</t>
+          <t>Sentence</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Modèle</t>
+          <t>Model</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Average Factuality</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Average Readability</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test1</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,31 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.8414592146873474 / 2</t>
+          <t>0.1196020245552063 &amp; 2</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.8958436548709869</v>
+        <v>0.1196020245552063</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Test2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Factuality and Readability</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.9502280950546265 / 2</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,24 +451,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Example of Sentence</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Factuality and Readability</t>
+          <t>Factuality</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.1196020245552063 &amp; 2</t>
+          <t>0.5775379538536072</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1196020245552063</v>
+        <v>0.5775379538536072</v>
       </c>
       <c r="E2" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Example of Sentence</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Readability</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Example of Sentence</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Factuality and Readability</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.5775379538536072 &amp; 2</t>
+        </is>
       </c>
     </row>
   </sheetData>
